--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716789.8670514837</v>
+        <v>-719324.8379273377</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>270.8049998327903</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66.16653660568278</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292592</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4107936422636</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>77.60777978034773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>35.90258484473403</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>233.307296164806</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>103.484863122633</v>
       </c>
       <c r="V5" t="n">
-        <v>305.2965548759452</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.14973080107517</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>142.4180747895734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>256.7273523546854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>220.5340603502205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>19.37905693789765</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>277.3089696975388</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>13.94435783112208</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.64674755991393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.2207207382379</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>100.988480008087</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>225.8471109562078</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.0850116794029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.829289912211</v>
+        <v>1288.360368798407</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.866772971799</v>
+        <v>919.397851857995</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.866772971799</v>
+        <v>561.1321532512445</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>175.3439006530003</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>175.3439006530003</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4346,10 +4346,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.429129976333</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.429129976333</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1690503969125</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C4" t="n">
-        <v>102.7773536490865</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>102.7773536490865</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>102.7773536490865</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>102.7773536490865</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>102.7773536490865</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>102.7773536490865</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1380.033539895541</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271522</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3015.097909223057</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.694986422457</v>
+        <v>2684.035021879487</v>
       </c>
       <c r="W5" t="n">
-        <v>2410.926331152342</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="X5" t="n">
-        <v>2037.460572891262</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1647.321240915451</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>748.9478110984675</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>580.0116281705606</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>580.0116281705606</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>432.0985345881675</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.335040012547</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1204.917869975587</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>976.9283190775692</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9283190775692</v>
+        <v>748.9478110984675</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.606831754061</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="E8" t="n">
-        <v>736.8185791558167</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="F8" t="n">
-        <v>325.8326743662091</v>
+        <v>746.3431424691531</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>331.2706923141496</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.7556739678756</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8194910399687</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D10" t="n">
-        <v>401.702851627633</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E10" t="n">
-        <v>253.7897580452399</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7897580452399</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>86.08692141995883</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>86.08692141995883</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.60866391532</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981154</v>
+        <v>1080.902916808105</v>
       </c>
       <c r="X10" t="n">
-        <v>902.4041387981154</v>
+        <v>1080.902916808105</v>
       </c>
       <c r="Y10" t="n">
-        <v>902.4041387981154</v>
+        <v>860.1103376645754</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232855</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336517</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438499</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647295</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368226</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336517</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438499</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949692</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583154</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987586</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,34 +5762,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684185</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>337.5370598705081</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6443,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>385.6451336181095</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,28 +7567,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>344.7551890477707</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>257.3203070362054</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>89.63904131828011</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.90454204080683</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.6711151870903</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9379057921809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>48.39475227997447</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.85445046951839</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>64.53565828418189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.33736343303636</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>40.3204386478854</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26323,13 +26323,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26341,7 +26341,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
@@ -26350,7 +26350,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291434</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16685.50469591391</v>
+        <v>16685.50469591394</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815704</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815707</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,31 +26433,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989936</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1246093.070859431</v>
+        <v>-1246418.415949713</v>
       </c>
       <c r="C6" t="n">
-        <v>47414.5794097347</v>
+        <v>47414.57940973487</v>
       </c>
       <c r="D6" t="n">
-        <v>47414.57940973464</v>
+        <v>47414.57940973458</v>
       </c>
       <c r="E6" t="n">
-        <v>-196167.9879410664</v>
+        <v>-196202.7258665019</v>
       </c>
       <c r="F6" t="n">
-        <v>129244.4738662888</v>
+        <v>129209.7359408533</v>
       </c>
       <c r="G6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="H6" t="n">
-        <v>129244.473866289</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="I6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="J6" t="n">
-        <v>-88286.72853098861</v>
+        <v>-88321.46645642437</v>
       </c>
       <c r="K6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.735940853</v>
       </c>
       <c r="L6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="M6" t="n">
-        <v>18897.83369632653</v>
+        <v>18897.83369632674</v>
       </c>
       <c r="N6" t="n">
-        <v>123380.5796254704</v>
+        <v>123380.5796254703</v>
       </c>
       <c r="O6" t="n">
-        <v>123380.5796254702</v>
+        <v>123380.57962547</v>
       </c>
       <c r="P6" t="n">
         <v>123380.5796254703</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>111.9288418306903</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.44983556510406</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>147.510308836269</v>
       </c>
       <c r="V5" t="n">
-        <v>22.45570359418969</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>94.27131722185608</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>109.7195685342546</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>154.194373298768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>74.07370403709993</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.97336347194044</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.214028639052174</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>271.1474903386687</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>688.4205792103725</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>545.824334765928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37947,13 +37947,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.6869047919381</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
